--- a/Sponsor Skill Interest Survey (Responses).xlsx
+++ b/Sponsor Skill Interest Survey (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Timestamp</t>
   </si>
@@ -170,6 +170,27 @@
   </si>
   <si>
     <t>Student led startup, not office rats</t>
+  </si>
+  <si>
+    <t>Balyasny</t>
+  </si>
+  <si>
+    <t>Research, analysis, collaboration</t>
+  </si>
+  <si>
+    <t>Pytorch</t>
+  </si>
+  <si>
+    <t>Python java c++</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Top returns</t>
+  </si>
+  <si>
+    <t>Morals</t>
   </si>
 </sst>
 </file>
@@ -206,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -221,6 +242,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,7 +328,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H8" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H9" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="8">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Name of Company" id="2"/>
@@ -735,6 +762,32 @@
         <v>33</v>
       </c>
     </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" s="5">
+        <v>46053.77412954861</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">
